--- a/static/templates_base_interna/4 AUDITORIA AGIL/4 Macroprocesos y Procesos en Municipalidades.xlsx
+++ b/static/templates_base_interna/4 AUDITORIA AGIL/4 Macroprocesos y Procesos en Municipalidades.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\2 ARCHIVOS AUDITORIA INTERNA\4 AUDITORIA AGIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\4 AUDITORIA AGIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B02D1E-5A49-4DEC-A5D3-1E6842F70E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="8250"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -59,9 +60,6 @@
     <t>Alto</t>
   </si>
   <si>
-    <t xml:space="preserve">      Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
     <t>Sugerencia:</t>
   </si>
   <si>
@@ -599,17 +597,20 @@
     <t>Reviso</t>
   </si>
   <si>
-    <t xml:space="preserve">                     Auditoría de Procesos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      Entidad XXXXXXX</t>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoría de Procesos</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,13 +633,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -676,7 +670,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,12 +680,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,41 +735,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,7 +796,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -878,7 +863,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1197,11 +1188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1247,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1272,7 +1263,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
@@ -1288,7 +1279,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="1"/>
@@ -1298,15 +1289,15 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="E8" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
@@ -1316,10 +1307,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1332,10 +1323,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="E10" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1343,16 +1334,15 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
+      <c r="E11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="13"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1364,7 +1354,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1374,31 +1364,31 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="1"/>
@@ -1406,950 +1396,950 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="I15" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="E23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="F27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="F28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="F29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="F30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="E31" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="F31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="F32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="E33" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="F33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="E34" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="11" t="s">
+      <c r="F34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="F36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="E37" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="F37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="F38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="D39" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="E39" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="F39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="D40" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="F40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="D41" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="F41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="F42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="D43" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="E43" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="F43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="D44" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="E44" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="F44" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2384,10 +2374,10 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="4"/>
+      <c r="A47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2400,10 +2390,10 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="4"/>
+      <c r="A48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2416,8 +2406,8 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2430,10 +2420,10 @@
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="4"/>
+      <c r="A50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="3"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2446,10 +2436,10 @@
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="4"/>
+      <c r="A51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="3"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2462,8 +2452,8 @@
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2476,10 +2466,10 @@
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="4"/>
+      <c r="A53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="3"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2493,7 +2483,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2610,7 +2600,7 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="15"/>
+      <c r="E62" s="10"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -2624,8 +2614,8 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="16" t="s">
-        <v>187</v>
+      <c r="E63" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -2818,6 +2808,12 @@
       <c r="L76" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
